--- a/project/excel/synthetic_population_schema.xlsx
+++ b/project/excel/synthetic_population_schema.xlsx
@@ -7,9 +7,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NamedThing" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Person" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="PersonCollection" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="State" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="PUMA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="County" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Tract" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="BlockGroup" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Household" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Person" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,7 +430,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>fips_code</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -436,7 +440,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>abbreviation</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>counties</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>pumas</t>
         </is>
       </c>
     </row>
@@ -446,6 +460,165 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>fips_code</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>state_fips_code</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>fips_code</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>state_fips_code</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>tracts</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>fips_code</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>state_fips_code</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>county_fips_code</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>block_groups</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>fips_code</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tract_fips_code</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>state_fips_code</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>county_fips_code</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>households</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -462,57 +635,52 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>primary_email</t>
+          <t>serialno</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>birth_date</t>
+          <t>hh_id</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>age_in_years</t>
+          <t>hh_age</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>vital_status</t>
+          <t>hh_income</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>hh_race</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>size</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>persons</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"ALIVE,DEAD,UNKNOWN"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,7 +691,77 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>entries</t>
+          <t>state_fips_code</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>county_fips_code</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>tract_fips_code</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>block_group_fips_code</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>serialno</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>hh_id</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>hh_age</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>hh_income</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>hh_race</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>sporder</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>relp</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>rac1p</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>agep</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>sex</t>
         </is>
       </c>
     </row>
